--- a/Tecnologia da Informação/Backlog.xlsx
+++ b/Tecnologia da Informação/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Projeto PI SPRINT 1\Grupo08ADSB\Tecnologia da Informação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\SPRINT 1\Grupo08ADSB\Tecnologia da Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t xml:space="preserve">Não Funcional </t>
   </si>
@@ -40,9 +40,6 @@
     <t>Importante</t>
   </si>
   <si>
-    <t xml:space="preserve">Site suportar muitos Usuário </t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Confirmação de cadastro por link de validação enviado ao email do usuário.</t>
   </si>
   <si>
-    <t>Cadastro deve possuir nome completo, email e senha alfanúmerica de 8 caracteres, nome estabelecimento, CNPJ, telefone, UF.</t>
-  </si>
-  <si>
     <t>Troca das cores gráficas e registros (Exibição)</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>O software deverá conter uma funcionalidade para ocultar o campo onde será inserido a senha</t>
   </si>
   <si>
-    <t>Predominância de cores quentes</t>
-  </si>
-  <si>
     <t>O software precisa ter uma página contendo apenas o Dashboard</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>O site deve possuir um menu para navegação do usuário</t>
   </si>
   <si>
-    <t xml:space="preserve">O software deverá conter quatos tipos o usuario quiser para melhor visualização </t>
-  </si>
-  <si>
     <t>O software deverá fazer a consulta no banco de dados e ter uma funcionalidade para trazer a média de temperatura</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>Armazenamento das informações e dados métricos na nuvem</t>
   </si>
   <si>
-    <t>CISSP – CERTIFIED INFORMATION SYSTEMS SECURITY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Backup dos dados </t>
   </si>
   <si>
@@ -200,6 +185,15 @@
   </si>
   <si>
     <t>O software deve enviar email e notificação via SMS aos usuários caso os dados do sensores ultrapassem um limite estabelecido, além de um alerta na tela.</t>
+  </si>
+  <si>
+    <t>Cadastro deve possuir email, senha alfanúmerica de 8 caracteres, nome do estabelecimento, CNPJ e telefone.</t>
+  </si>
+  <si>
+    <t>Site suportar muitos usuários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O software deverá conter quantos gráficos o usuário quiser para melhor visualização </t>
   </si>
 </sst>
 </file>
@@ -428,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -478,16 +472,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -818,116 +821,116 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>0</v>
@@ -935,7 +938,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>1</v>
@@ -946,370 +949,358 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
+      <c r="A27" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>38</v>
+      <c r="A37" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>32</v>
+      <c r="C37" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="A38" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>3</v>
+      <c r="B42" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>32</v>
+      <c r="A44" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
